--- a/chapter-01/files/analytics_template_v1.xlsx
+++ b/chapter-01/files/analytics_template_v1.xlsx
@@ -50,8 +50,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E6FA"/>
-        <bgColor rgb="00E6E6FA"/>
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,15 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -439,6 +434,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="001F4E79"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -450,10 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,7 +456,9 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+    </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -485,7 +480,9 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+    </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
@@ -521,9 +518,11 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>🔧 Порядок работы:</t>
         </is>
@@ -557,9 +556,11 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+    </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>⚡ Важные функции Excel (РУССКИЕ):</t>
         </is>
@@ -615,10 +616,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0070AD47"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,20 +628,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>📊 ИМПОРТ ДАННЫХ</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -675,7 +684,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -697,283 +705,135 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>📋 После импорта данные будут здесь:</t>
         </is>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>ТАБЛИЦА 1: Данные о продажах</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>номер_заказа</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>дата</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>регион</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>категория</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>менеджер</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>сумма_продаж</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>количество</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>скидка</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>чистая_выручка</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22"/>
-    <row r="23"/>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ТАБЛИЦА 2: Данные о клиентах</t>
+        </is>
+      </c>
+    </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ТАБЛИЦА 2: Данные о клиентах</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>код_клиента</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>имя_клиента</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>возрастная_группа</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>доходы</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>образование</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>регион</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G24" s="3" t="inlineStr">
         <is>
           <t>тип_подписки</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H24" s="3" t="inlineStr">
         <is>
           <t>оценка_удовлетворенности</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I24" s="3" t="inlineStr">
         <is>
           <t>лет_с_нами</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>всего_покупок</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K24" s="3" t="inlineStr">
         <is>
           <t>средний_чек</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L24" s="3" t="inlineStr">
         <is>
           <t>дней_после_покупки</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -983,6 +843,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00C5504B"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -995,44 +856,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>📈 АНАЛИТИЧЕСКИЕ РАСЧЕТЫ</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>📊 ЗАДАНИЕ 1: Описательная статистика продаж</t>
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Показатель</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Формула</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Значение</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Интерпретация</t>
         </is>
@@ -1044,10 +904,7 @@
           <t>Количество продаж</t>
         </is>
       </c>
-      <c r="B6">
-        <f>СЧЁТЗ(Data!F:F)</f>
-        <v/>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,10 +918,7 @@
           <t>Общая сумма</t>
         </is>
       </c>
-      <c r="B7">
-        <f>СУММ(Data!F:F)</f>
-        <v/>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,10 +932,7 @@
           <t>Среднее</t>
         </is>
       </c>
-      <c r="B8">
-        <f>СРЗНАЧ(Data!F:F)</f>
-        <v/>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
@@ -1095,10 +946,7 @@
           <t>Медиана</t>
         </is>
       </c>
-      <c r="B9">
-        <f>МЕДИАНА(Data!F:F)</f>
-        <v/>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,10 +960,7 @@
           <t>Минимум</t>
         </is>
       </c>
-      <c r="B10">
-        <f>МИН(Data!F:F)</f>
-        <v/>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,10 +974,7 @@
           <t>Максимум</t>
         </is>
       </c>
-      <c r="B11">
-        <f>МАКС(Data!F:F)</f>
-        <v/>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
@@ -1146,10 +988,7 @@
           <t>Стандартное отклонение</t>
         </is>
       </c>
-      <c r="B12">
-        <f>СТАНДОТКЛОН.В(Data!F:F)</f>
-        <v/>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
@@ -1163,10 +1002,7 @@
           <t>Размах</t>
         </is>
       </c>
-      <c r="B13">
-        <f>МАКС(Data!F:F)-МИН(Data!F:F)</f>
-        <v/>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
@@ -1174,37 +1010,35 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>📊 ЗАДАНИЕ 2: Анализ по регионам</t>
         </is>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Регион</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Общая сумма</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Среднее</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Количество</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Доля</t>
         </is>
@@ -1216,19 +1050,6 @@
           <t>Север</t>
         </is>
       </c>
-      <c r="B18">
-        <f>СУММЕСЛИ(Data!C:C,"Север",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="C18">
-        <f>СРЗНАЧЕСЛИ(Data!C:C,"Север",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="D18">
-        <f>СЧЁТЕСЛИ(Data!C:C,"Север")</f>
-        <v/>
-      </c>
-      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1236,19 +1057,6 @@
           <t>Юг</t>
         </is>
       </c>
-      <c r="B19">
-        <f>СУММЕСЛИ(Data!C:C,"Юг",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>СРЗНАЧЕСЛИ(Data!C:C,"Юг",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>СЧЁТЕСЛИ(Data!C:C,"Юг")</f>
-        <v/>
-      </c>
-      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1256,19 +1064,6 @@
           <t>Восток</t>
         </is>
       </c>
-      <c r="B20">
-        <f>СУММЕСЛИ(Data!C:C,"Восток",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="C20">
-        <f>СРЗНАЧЕСЛИ(Data!C:C,"Восток",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="D20">
-        <f>СЧЁТЕСЛИ(Data!C:C,"Восток")</f>
-        <v/>
-      </c>
-      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1276,19 +1071,6 @@
           <t>Запад</t>
         </is>
       </c>
-      <c r="B21">
-        <f>СУММЕСЛИ(Data!C:C,"Запад",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="C21">
-        <f>СРЗНАЧЕСЛИ(Data!C:C,"Запад",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="D21">
-        <f>СЧЁТЕСЛИ(Data!C:C,"Запад")</f>
-        <v/>
-      </c>
-      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1296,21 +1078,7 @@
           <t>Центр</t>
         </is>
       </c>
-      <c r="B22">
-        <f>СУММЕСЛИ(Data!C:C,"Центр",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="C22">
-        <f>СРЗНАЧЕСЛИ(Data!C:C,"Центр",Data!F:F)</f>
-        <v/>
-      </c>
-      <c r="D22">
-        <f>СЧЁТЕСЛИ(Data!C:C,"Центр")</f>
-        <v/>
-      </c>
-      <c r="E22" t="inlineStr"/>
-    </row>
-    <row r="23"/>
+    </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
@@ -1326,10 +1094,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FFC000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,20 +1106,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>📊 ГРАФИКИ И ВИЗУАЛИЗАЦИЯ</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -1358,7 +1123,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -1387,7 +1151,6 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
@@ -1423,253 +1186,12 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
           <t>📈 Место для ваших графиков:</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1679,6 +1201,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="007030A0"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1690,22 +1213,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>📋 ИТОГОВЫЙ ОТЧЕТ И ВЫВОДЫ</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>🎯 ИСПОЛНИТЕЛЬНОЕ РЕЗЮМЕ</t>
         </is>
@@ -1718,11 +1237,8 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>📊 КЛЮЧЕВЫЕ ПОКАЗАТЕЛИ</t>
         </is>
@@ -1756,7 +1272,6 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
@@ -1778,7 +1293,6 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
@@ -1793,9 +1307,8 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>3. Региональный анализ показал:</t>
         </is>
@@ -1808,7 +1321,6 @@
         </is>
       </c>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
@@ -1823,7 +1335,6 @@
         </is>
       </c>
     </row>
-    <row r="26"/>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
@@ -1831,7 +1342,6 @@
         </is>
       </c>
     </row>
-    <row r="28"/>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
